--- a/real_songs_data.xlsx
+++ b/real_songs_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,124 +484,250 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alarm.mp3</t>
+          <t>perfect-beauty-191271.mp3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2607891156462585</v>
+        <v>7.3412</v>
       </c>
       <c r="C3" t="n">
-        <v>15.64734693877551</v>
+        <v>440.472</v>
       </c>
       <c r="D3" t="n">
-        <v>15.64734693877551</v>
+        <v>440.472</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[107.66601562]</t>
+          <t>[161.49902344]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>testfile3.mp3</t>
+          <t>alarm.mp3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2573061224489796</v>
+        <v>0.2607891156462585</v>
       </c>
       <c r="C4" t="n">
-        <v>15.43836734693878</v>
+        <v>15.64734693877551</v>
       </c>
       <c r="D4" t="n">
-        <v>15.43836734693878</v>
+        <v>15.64734693877551</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[64.59960938]</t>
+          <t>[107.66601562]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>testfile2.mp3</t>
+          <t>endless-horizons-223627.mp3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.618448979591837</v>
+        <v>1.7812</v>
       </c>
       <c r="C5" t="n">
-        <v>277.1069387755102</v>
+        <v>106.872</v>
       </c>
       <c r="D5" t="n">
-        <v>277.1069387755102</v>
+        <v>106.872</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[129.19921875]</t>
+          <t>[117.45383523]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>electroni_middle.mp3</t>
+          <t>testfile3.mp3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3091156462585034</v>
+        <v>0.2573061224489796</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5469387755102</v>
+        <v>15.43836734693878</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5469387755102</v>
+        <v>15.43836734693878</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[89.10290948]</t>
+          <t>[64.59960938]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>violin.mp3</t>
+          <t>lotus-sky-dreams-216049.mp3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3474285714285715</v>
+        <v>2.4112</v>
       </c>
       <c r="C7" t="n">
-        <v>20.84571428571429</v>
+        <v>144.672</v>
       </c>
       <c r="D7" t="n">
-        <v>20.84571428571429</v>
+        <v>144.672</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[107.66601562]</t>
+          <t>[99.38401442]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>testfile2.mp3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.618448979591837</v>
+      </c>
+      <c r="C8" t="n">
+        <v>277.1069387755102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>277.1069387755102</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[129.19921875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>electroni_middle.mp3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3091156462585034</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.5469387755102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.5469387755102</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[89.10290948]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>violin.mp3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3474285714285715</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.84571428571429</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.84571428571429</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[107.66601562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>night-detective-226857.mp3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.9332</v>
+      </c>
+      <c r="C11" t="n">
+        <v>115.992</v>
+      </c>
+      <c r="D11" t="n">
+        <v>115.992</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[73.828125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>titanium.mp3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[64.59960938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>island-breeze-214305.mp3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.5108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90.648</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90.648</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[107.66601562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>alarm2.mp3</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>0.6743945578231293</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>40.46367346938776</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>40.46367346938776</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>[129.19921875]</t>
         </is>

--- a/real_songs_data.xlsx
+++ b/real_songs_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,274 +463,1433 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>electronic.mp3</t>
+          <t>tvari-tokyo-cafe-159065.mp3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.685823129251701</v>
+        <v>2.558258333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>161.1493877551021</v>
+        <v>153.4955</v>
       </c>
       <c r="D2" t="n">
-        <v>161.1493877551021</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[60.09265988]</t>
-        </is>
+        <v>153.4955</v>
+      </c>
+      <c r="E2" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>perfect-beauty-191271.mp3</t>
+          <t>electronic.mp3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.3412</v>
+        <v>2.685823129251701</v>
       </c>
       <c r="C3" t="n">
-        <v>440.472</v>
+        <v>161.1493877551021</v>
       </c>
       <c r="D3" t="n">
-        <v>440.472</v>
+        <v>161.1493877551021</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[161.49902344]</t>
+          <t>[60.09265988]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alarm.mp3</t>
+          <t>vibrant-pulse-201770.mp3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2607891156462585</v>
+        <v>1.549496354166667</v>
       </c>
       <c r="C4" t="n">
-        <v>15.64734693877551</v>
+        <v>92.96978125</v>
       </c>
       <c r="D4" t="n">
-        <v>15.64734693877551</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[107.66601562]</t>
-        </is>
+        <v>92.96978125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>endless-horizons-223627.mp3</t>
+          <t>jazzy-abstract-beat-11254.mp3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.7812</v>
+        <v>1.420190104166667</v>
       </c>
       <c r="C5" t="n">
-        <v>106.872</v>
+        <v>85.21140625</v>
       </c>
       <c r="D5" t="n">
-        <v>106.872</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[117.45383523]</t>
-        </is>
+        <v>85.21140625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>testfile3.mp3</t>
+          <t>angel-wings-background-music-for-video-lyrical-hip-hop-version-53sec-222261.mp3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2573061224489796</v>
+        <v>0.885115625</v>
       </c>
       <c r="C6" t="n">
-        <v>15.43836734693878</v>
+        <v>53.1069375</v>
       </c>
       <c r="D6" t="n">
-        <v>15.43836734693878</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[64.59960938]</t>
-        </is>
+        <v>53.1069375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lotus-sky-dreams-216049.mp3</t>
+          <t>breeze-groove-198409.mp3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4112</v>
+        <v>1.603047395833333</v>
       </c>
       <c r="C7" t="n">
-        <v>144.672</v>
+        <v>96.18284375</v>
       </c>
       <c r="D7" t="n">
-        <v>144.672</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[99.38401442]</t>
-        </is>
+        <v>96.18284375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>testfile2.mp3</t>
+          <t>stellar-echoes-202315.mp3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.618448979591837</v>
+        <v>2.209958854166667</v>
       </c>
       <c r="C8" t="n">
-        <v>277.1069387755102</v>
+        <v>132.59753125</v>
       </c>
       <c r="D8" t="n">
-        <v>277.1069387755102</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[129.19921875]</t>
-        </is>
+        <v>132.59753125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>electroni_middle.mp3</t>
+          <t>sunset-groove-211575.mp3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3091156462585034</v>
+        <v>2.061496354166667</v>
       </c>
       <c r="C9" t="n">
-        <v>18.5469387755102</v>
+        <v>123.68978125</v>
       </c>
       <c r="D9" t="n">
-        <v>18.5469387755102</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[89.10290948]</t>
-        </is>
+        <v>123.68978125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>violin.mp3</t>
+          <t>perfect-beauty-191271.mp3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3474285714285715</v>
+        <v>7.3412</v>
       </c>
       <c r="C10" t="n">
-        <v>20.84571428571429</v>
+        <v>440.472</v>
       </c>
       <c r="D10" t="n">
-        <v>20.84571428571429</v>
+        <v>440.472</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[107.66601562]</t>
+          <t>[161.49902344]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>night-detective-226857.mp3</t>
+          <t>dancing-under-the-stars-background-music-for-video-vlog-1-minute-225252.mp3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.9332</v>
+        <v>1.10585</v>
       </c>
       <c r="C11" t="n">
-        <v>115.992</v>
+        <v>66.351</v>
       </c>
       <c r="D11" t="n">
-        <v>115.992</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[73.828125]</t>
-        </is>
+        <v>66.351</v>
+      </c>
+      <c r="E11" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>titanium.mp3</t>
+          <t>rise-above-178316.mp3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.77</v>
+        <v>1.374040625</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2</v>
+        <v>82.4424375</v>
       </c>
       <c r="D12" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[64.59960938]</t>
-        </is>
+        <v>82.4424375</v>
+      </c>
+      <c r="E12" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>island-breeze-214305.mp3</t>
+          <t>waterfall-140894.mp3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.5108</v>
+        <v>2.738938541666667</v>
       </c>
       <c r="C13" t="n">
-        <v>90.648</v>
+        <v>164.3363125</v>
       </c>
       <c r="D13" t="n">
-        <v>90.648</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[107.66601562]</t>
-        </is>
+        <v>164.3363125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>sunrise-groove-176565.mp3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.70623125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>102.373875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>102.373875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sunlit-whistle-200168.mp3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.8294421875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>109.76653125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>109.76653125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>alone-in-the-dark-background-hip-hop-music-for-video-full-version-226817.mp3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.312271875</v>
+      </c>
+      <c r="C16" t="n">
+        <v>138.7363125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>138.7363125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>flow-211881.mp3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.186013541666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>131.1608125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>131.1608125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>whip-afro-dancehall-music-110235.mp3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.738067708333333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>164.2840625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>164.2840625</v>
+      </c>
+      <c r="E18" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sunlit-rhythms-205542.mp3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.756298958333333</v>
+      </c>
+      <c r="C19" t="n">
+        <v>105.3779375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>105.3779375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>no-place-to-go-216744.mp3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5.630258333333333</v>
+      </c>
+      <c r="C20" t="n">
+        <v>337.8155</v>
+      </c>
+      <c r="D20" t="n">
+        <v>337.8155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>testfile.mp3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.185558333333333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>191.1335</v>
+      </c>
+      <c r="D21" t="n">
+        <v>191.1335</v>
+      </c>
+      <c r="E21" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>big-jason-slap-house-version-background-music-for-video-vlog-52-sec-223904.mp3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8737958333333334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.42775</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.42775</v>
+      </c>
+      <c r="E22" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>movement-200697.mp3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.5852515625</v>
+      </c>
+      <c r="C23" t="n">
+        <v>155.11509375</v>
+      </c>
+      <c r="D23" t="n">
+        <v>155.11509375</v>
+      </c>
+      <c r="E23" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>happy-day-113985.mp3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.83385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>170.031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>170.031</v>
+      </c>
+      <c r="E24" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lofi-chill-medium-version-159456.mp3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.1311015625</v>
+      </c>
+      <c r="C25" t="n">
+        <v>67.86609375</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67.86609375</v>
+      </c>
+      <c r="E25" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>amalgam-217007.mp3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.233578125</v>
+      </c>
+      <c r="C26" t="n">
+        <v>254.0146875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>254.0146875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>futuristic-beat-146661.mp3</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.022747916666666</v>
+      </c>
+      <c r="C27" t="n">
+        <v>121.364875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>121.364875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>drive-breakbeat-173062.mp3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.832054166666667</v>
+      </c>
+      <c r="C28" t="n">
+        <v>109.92325</v>
+      </c>
+      <c r="D28" t="n">
+        <v>109.92325</v>
+      </c>
+      <c r="E28" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>alarm.mp3</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2607891156462585</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.64734693877551</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15.64734693877551</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[107.66601562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>big-jason-slap-house-version-background-music-for-video-vlog-37-sec-223903.mp3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6256322916666667</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37.5379375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.5379375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>solitude-dark-ambient-electronic-197737.mp3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.634013541666667</v>
+      </c>
+      <c r="C31" t="n">
+        <v>158.0408125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>158.0408125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>please-calm-my-mind-125566.mp3</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.921360416666666</v>
+      </c>
+      <c r="C32" t="n">
+        <v>175.281625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>175.281625</v>
+      </c>
+      <c r="E32" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>powerful-beat-121791.mp3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.227319270833333</v>
+      </c>
+      <c r="C33" t="n">
+        <v>73.63915625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>73.63915625</v>
+      </c>
+      <c r="E33" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>endless-horizons-223627.mp3</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.7812</v>
+      </c>
+      <c r="C34" t="n">
+        <v>106.872</v>
+      </c>
+      <c r="D34" t="n">
+        <v>106.872</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[117.45383523]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>testfile3.mp3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2573061224489796</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15.43836734693878</v>
+      </c>
+      <c r="D35" t="n">
+        <v>15.43836734693878</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[64.59960938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>neon-fury-201183.mp3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.13208125</v>
+      </c>
+      <c r="C36" t="n">
+        <v>187.924875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>187.924875</v>
+      </c>
+      <c r="E36" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>alone-in-the-dark-background-hip-hop-music-for-video-vlog-43-second-226818.mp3</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7227208333333334</v>
+      </c>
+      <c r="C37" t="n">
+        <v>43.36325</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43.36325</v>
+      </c>
+      <c r="E37" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>lotus-sky-dreams-216049.mp3</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2.4112</v>
+      </c>
+      <c r="C38" t="n">
+        <v>144.672</v>
+      </c>
+      <c r="D38" t="n">
+        <v>144.672</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[99.38401442]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sunrise-bliss-190967.mp3</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.944380729166667</v>
+      </c>
+      <c r="C39" t="n">
+        <v>116.66284375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>116.66284375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>abstract-fashion-pop-131283.mp3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.543401041666667</v>
+      </c>
+      <c r="C40" t="n">
+        <v>92.6040625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>92.6040625</v>
+      </c>
+      <c r="E40" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>testfile2.mp3</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4.618448979591837</v>
+      </c>
+      <c r="C41" t="n">
+        <v>277.1069387755102</v>
+      </c>
+      <c r="D41" t="n">
+        <v>277.1069387755102</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[129.19921875]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>big-jason-slap-house-version-background-music-for-video-vlog-promo-223788.mp3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2.1237546875</v>
+      </c>
+      <c r="C42" t="n">
+        <v>127.42528125</v>
+      </c>
+      <c r="D42" t="n">
+        <v>127.42528125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>electroni_middle.mp3</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3091156462585034</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18.5469387755102</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18.5469387755102</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[89.10290948]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>drop-it-124014.mp3</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.701877083333333</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.112625</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102.112625</v>
+      </c>
+      <c r="E44" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>smoke-143172.mp3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.9813875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>118.88325</v>
+      </c>
+      <c r="D45" t="n">
+        <v>118.88325</v>
+      </c>
+      <c r="E45" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dark-mystery-trailer-taking-our-time-131566.mp3</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8006526041666666</v>
+      </c>
+      <c r="C46" t="n">
+        <v>48.03915625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>48.03915625</v>
+      </c>
+      <c r="E46" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>better-day-186374.mp3</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.51161875</v>
+      </c>
+      <c r="C47" t="n">
+        <v>90.697125</v>
+      </c>
+      <c r="D47" t="n">
+        <v>90.697125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>midnight-forest-184304.mp3</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.805115625</v>
+      </c>
+      <c r="C48" t="n">
+        <v>168.3069375</v>
+      </c>
+      <c r="D48" t="n">
+        <v>168.3069375</v>
+      </c>
+      <c r="E48" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>deep-future-garage-royalty-free-music-163081.mp3</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.092843229166667</v>
+      </c>
+      <c r="C49" t="n">
+        <v>125.57059375</v>
+      </c>
+      <c r="D49" t="n">
+        <v>125.57059375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ethereal-vistas-191254.mp3</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4.028952083333333</v>
+      </c>
+      <c r="C50" t="n">
+        <v>241.737125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>241.737125</v>
+      </c>
+      <c r="E50" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>for-her-chill-upbeat-summel-travel-vlog-and-ig-music-royalty-free-use-202298.mp3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.2230203125</v>
+      </c>
+      <c r="C51" t="n">
+        <v>133.38121875</v>
+      </c>
+      <c r="D51" t="n">
+        <v>133.38121875</v>
+      </c>
+      <c r="E51" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>violin.mp3</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3474285714285715</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20.84571428571429</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20.84571428571429</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[107.66601562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dancing-under-the-stars-background-music-for-video-vlog-25-second-225249.mp3</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4227479166666667</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25.364875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>25.364875</v>
+      </c>
+      <c r="E53" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>night-detective-226857.mp3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.9332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>115.992</v>
+      </c>
+      <c r="D54" t="n">
+        <v>115.992</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[73.828125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>once-in-paris-168895.mp3</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2.207782291666667</v>
+      </c>
+      <c r="C55" t="n">
+        <v>132.4669375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>132.4669375</v>
+      </c>
+      <c r="E55" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>in-slow-motion-inspiring-ambient-lounge-219592.mp3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.983129166666667</v>
+      </c>
+      <c r="C56" t="n">
+        <v>118.98775</v>
+      </c>
+      <c r="D56" t="n">
+        <v>118.98775</v>
+      </c>
+      <c r="E56" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>good-night-160166.mp3</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2.452027083333333</v>
+      </c>
+      <c r="C57" t="n">
+        <v>147.121625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>147.121625</v>
+      </c>
+      <c r="E57" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>alone-in-the-dark-background-hip-hop-music-for-video-vlog-48-second-226819.mp3</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8063125</v>
+      </c>
+      <c r="C58" t="n">
+        <v>48.37875</v>
+      </c>
+      <c r="D58" t="n">
+        <v>48.37875</v>
+      </c>
+      <c r="E58" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>titanium.mp3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C59" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[64.59960938]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>a-long-way-166385.mp3</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4.551401041666667</v>
+      </c>
+      <c r="C60" t="n">
+        <v>273.0840625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>273.0840625</v>
+      </c>
+      <c r="E60" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>trap-future-bass-royalty-free-music-167020.mp3</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2.108516666666667</v>
+      </c>
+      <c r="C61" t="n">
+        <v>126.511</v>
+      </c>
+      <c r="D61" t="n">
+        <v>126.511</v>
+      </c>
+      <c r="E61" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>dancing-under-the-stars-background-music-for-video-hip-hop-version-225245.mp3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.2143125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>132.85875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>132.85875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>floating-abstract-142819.mp3</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.6239453125</v>
+      </c>
+      <c r="C63" t="n">
+        <v>97.43671875</v>
+      </c>
+      <c r="D63" t="n">
+        <v>97.43671875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>island-breeze-214305.mp3</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.5108</v>
+      </c>
+      <c r="C64" t="n">
+        <v>90.648</v>
+      </c>
+      <c r="D64" t="n">
+        <v>90.648</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[107.66601562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sad-soul-chasing-a-feeling-185750.mp3</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.9439453125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>116.63671875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>116.63671875</v>
+      </c>
+      <c r="E65" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>alarm2.mp3</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B66" t="n">
         <v>0.6743945578231293</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C66" t="n">
         <v>40.46367346938776</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D66" t="n">
         <v>40.46367346938776</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>[129.19921875]</t>
         </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>relaxed-vlog-night-street-131746.mp3</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2.348843229166667</v>
+      </c>
+      <c r="C67" t="n">
+        <v>140.93059375</v>
+      </c>
+      <c r="D67" t="n">
+        <v>140.93059375</v>
+      </c>
+      <c r="E67" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Journey(chosic.com).mp3</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.54095125</v>
+      </c>
+      <c r="C68" t="n">
+        <v>212.457075</v>
+      </c>
+      <c r="D68" t="n">
+        <v>212.457075</v>
+      </c>
+      <c r="E68" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>big-jason-slap-house-version-background-music-for-video-vlog-1minute-223905.mp3</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.1084625</v>
+      </c>
+      <c r="C69" t="n">
+        <v>66.50775</v>
+      </c>
+      <c r="D69" t="n">
+        <v>66.50775</v>
+      </c>
+      <c r="E69" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>angel-wings-background-music-for-video-lyrical-hip-hop-version-41sec-222259.mp3</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6883265625</v>
+      </c>
+      <c r="C70" t="n">
+        <v>41.29959375</v>
+      </c>
+      <c r="D70" t="n">
+        <v>41.29959375</v>
+      </c>
+      <c r="E70" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mellow-future-bass-bounce-on-it-184234.mp3</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2.154666666666667</v>
+      </c>
+      <c r="C71" t="n">
+        <v>129.28</v>
+      </c>
+      <c r="D71" t="n">
+        <v>129.28</v>
+      </c>
+      <c r="E71" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>dancing-under-the-stars-background-music-for-video-vlog-48-second-225251.mp3</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8006526041666666</v>
+      </c>
+      <c r="C72" t="n">
+        <v>48.03915625</v>
+      </c>
+      <c r="D72" t="n">
+        <v>48.03915625</v>
+      </c>
+      <c r="E72" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>alone-in-the-dark-background-hip-hop-music-for-video-vlog-60-second-226820.mp3</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.078421354166667</v>
+      </c>
+      <c r="C73" t="n">
+        <v>64.70528125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>64.70528125</v>
+      </c>
+      <c r="E73" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>lofi-study-112191.mp3</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2.453768229166667</v>
+      </c>
+      <c r="C74" t="n">
+        <v>147.22609375</v>
+      </c>
+      <c r="D74" t="n">
+        <v>147.22609375</v>
+      </c>
+      <c r="E74" t="n">
+        <v>117.4538352272727</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>electronic_rock.mp3</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.843373958333333</v>
+      </c>
+      <c r="C75" t="n">
+        <v>110.6024375</v>
+      </c>
+      <c r="D75" t="n">
+        <v>110.6024375</v>
+      </c>
+      <c r="E75" t="n">
+        <v>117.4538352272727</v>
       </c>
     </row>
   </sheetData>
